--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbruscato\Dropbox\Github-Lucas\master\2_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD646168-29C9-DC4E-83BA-DA335677C47E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
   <si>
     <t>programa</t>
   </si>
@@ -388,6 +387,36 @@
   </si>
   <si>
     <t>10331-Nova Venécia-ES.pdf</t>
+  </si>
+  <si>
+    <t>10332-Petrolina-PE.pdf</t>
+  </si>
+  <si>
+    <t>10333-Princesa Isabel-PB.pdf</t>
+  </si>
+  <si>
+    <t>10335-Colatina-ES.pdf</t>
+  </si>
+  <si>
+    <t>10337-Santa Maria-RS.pdf</t>
+  </si>
+  <si>
+    <t>10343-Dionísio Cerqueira-SC.pdf</t>
+  </si>
+  <si>
+    <t>10345-Alexandria-RN.pdf</t>
+  </si>
+  <si>
+    <t>10346-São Bento-PB.pdf</t>
+  </si>
+  <si>
+    <t>10356-Lages-SC.pdf</t>
+  </si>
+  <si>
+    <t>10359-Rorainópolis-RR.pdf</t>
+  </si>
+  <si>
+    <t>10361-Rio Verde-GO.pdf</t>
   </si>
 </sst>
 </file>
@@ -437,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -497,23 +526,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +602,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -828,24 +898,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BD5F18-02BD-3E4D-B945-4F3B5D58968F}">
-  <dimension ref="A1:F539"/>
+  <dimension ref="A1:M539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="15" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,17 +926,24 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -875,15 +953,15 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -893,17 +971,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -913,14 +991,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -930,14 +1008,14 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -947,17 +1025,17 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -967,14 +1045,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -984,17 +1062,17 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1004,17 +1082,17 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1024,17 +1102,17 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1044,14 +1122,14 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1061,14 +1139,14 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1078,14 +1156,14 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1095,14 +1173,14 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1112,17 +1190,17 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1132,17 +1210,17 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1152,17 +1230,17 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1172,17 +1250,17 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1192,14 +1270,14 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1209,17 +1287,17 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1229,17 +1307,17 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1249,14 +1327,14 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1266,14 +1344,14 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1283,14 +1361,14 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1300,17 +1378,17 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1320,17 +1398,17 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1340,14 +1418,14 @@
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1357,14 +1435,14 @@
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1374,17 +1452,17 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1394,17 +1472,17 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,14 +1492,14 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1431,17 +1509,17 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1451,17 +1529,17 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1471,14 +1549,14 @@
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1488,14 +1566,14 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1505,14 +1583,14 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1522,17 +1600,17 @@
       <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1542,17 +1620,17 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1562,14 +1640,14 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1579,14 +1657,14 @@
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1596,14 +1674,14 @@
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1613,17 +1691,17 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1633,17 +1711,17 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1653,17 +1731,17 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1673,14 +1751,14 @@
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1690,17 +1768,17 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1710,17 +1788,17 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1730,17 +1808,17 @@
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1750,17 +1828,17 @@
       <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1770,17 +1848,17 @@
       <c r="C50" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1790,17 +1868,17 @@
       <c r="C51" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="8">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1810,14 +1888,14 @@
       <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="8">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1827,14 +1905,14 @@
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1844,14 +1922,14 @@
       <c r="C54" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="8">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1861,14 +1939,14 @@
       <c r="C55" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="8">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1878,14 +1956,14 @@
       <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1895,14 +1973,14 @@
       <c r="C57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="8">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1912,17 +1990,17 @@
       <c r="C58" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="8">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1932,14 +2010,14 @@
       <c r="C59" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="8">
-        <v>0</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1949,17 +2027,17 @@
       <c r="C60" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="8">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1969,14 +2047,14 @@
       <c r="C61" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="8">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1986,14 +2064,14 @@
       <c r="C62" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="8">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2003,17 +2081,17 @@
       <c r="C63" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="8">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2023,14 +2101,14 @@
       <c r="C64" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="8">
-        <v>0</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2040,14 +2118,14 @@
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="8">
-        <v>0</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2057,17 +2135,17 @@
       <c r="C66" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="8">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2077,17 +2155,17 @@
       <c r="C67" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2097,17 +2175,17 @@
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="8">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2117,14 +2195,14 @@
       <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2134,11 +2212,11 @@
       <c r="C70" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2148,17 +2226,17 @@
       <c r="C71" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="8">
-        <v>0</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2168,17 +2246,17 @@
       <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1</v>
-      </c>
-      <c r="F72" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2188,14 +2266,14 @@
       <c r="C73" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="8">
-        <v>0</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2205,17 +2283,17 @@
       <c r="C74" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="8">
-        <v>0</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2225,14 +2303,14 @@
       <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="8">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="M75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2242,17 +2320,17 @@
       <c r="C76" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="8">
-        <v>1</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2262,17 +2340,17 @@
       <c r="C77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="8">
-        <v>0</v>
-      </c>
-      <c r="E77" s="5">
-        <v>1</v>
-      </c>
-      <c r="F77" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2282,17 +2360,17 @@
       <c r="C78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="8">
-        <v>0</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1</v>
-      </c>
-      <c r="F78" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2302,17 +2380,17 @@
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="8">
-        <v>1</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2322,17 +2400,17 @@
       <c r="C80" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="8">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5">
-        <v>1</v>
-      </c>
-      <c r="F80" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2342,17 +2420,17 @@
       <c r="C81" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2362,11 +2440,11 @@
       <c r="C82" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2376,17 +2454,17 @@
       <c r="C83" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="8">
-        <v>0</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2396,14 +2474,14 @@
       <c r="C84" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="8">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2413,17 +2491,17 @@
       <c r="C85" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="8">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2433,11 +2511,11 @@
       <c r="C86" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2447,17 +2525,17 @@
       <c r="C87" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="8">
-        <v>0</v>
-      </c>
-      <c r="E87" s="5">
-        <v>1</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2467,11 +2545,11 @@
       <c r="C88" t="s">
         <v>94</v>
       </c>
-      <c r="F88" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2481,17 +2559,17 @@
       <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="8">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2501,17 +2579,17 @@
       <c r="C90" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="8">
-        <v>0</v>
-      </c>
-      <c r="E90" s="5">
-        <v>1</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D90" s="6">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2521,17 +2599,17 @@
       <c r="C91" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="8">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5">
-        <v>1</v>
-      </c>
-      <c r="F91" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2541,17 +2619,17 @@
       <c r="C92" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="8">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2561,17 +2639,17 @@
       <c r="C93" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="8">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1</v>
-      </c>
-      <c r="F93" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2581,14 +2659,14 @@
       <c r="C94" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2598,17 +2676,17 @@
       <c r="C95" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2618,17 +2696,17 @@
       <c r="C96" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="8">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1</v>
-      </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="M96" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2638,14 +2716,14 @@
       <c r="C97" t="s">
         <v>103</v>
       </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2655,17 +2733,17 @@
       <c r="C98" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="8">
-        <v>0</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="M98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2675,17 +2753,17 @@
       <c r="C99" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="8">
-        <v>0</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2695,14 +2773,14 @@
       <c r="C100" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="8">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,14 +2790,14 @@
       <c r="C101" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="8">
-        <v>0</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2729,14 +2807,14 @@
       <c r="C102" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="M102" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2746,17 +2824,17 @@
       <c r="C103" t="s">
         <v>109</v>
       </c>
-      <c r="D103" s="8">
-        <v>0</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
-      <c r="F103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2766,17 +2844,17 @@
       <c r="C104" t="s">
         <v>110</v>
       </c>
-      <c r="D104" s="8">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D104" s="6">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2786,17 +2864,17 @@
       <c r="C105" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="8">
-        <v>0</v>
-      </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
-      <c r="F105" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2806,14 +2884,14 @@
       <c r="C106" t="s">
         <v>112</v>
       </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2823,17 +2901,17 @@
       <c r="C107" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="8">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2843,14 +2921,14 @@
       <c r="C108" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="8">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2860,14 +2938,14 @@
       <c r="C109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="8">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2877,14 +2955,14 @@
       <c r="C110" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="8">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D110" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2894,11 +2972,11 @@
       <c r="C111" t="s">
         <v>117</v>
       </c>
-      <c r="E111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2908,14 +2986,14 @@
       <c r="C112" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="8">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="6">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2925,91 +3003,181 @@
       <c r="C113" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3017,7 +3185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3025,7 +3193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3033,7 +3201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3041,7 +3209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3049,7 +3217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3057,7 +3225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3065,7 +3233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3073,7 +3241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3081,7 +3249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3089,7 +3257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3097,7 +3265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3105,7 +3273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3113,7 +3281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3121,7 +3289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3129,7 +3297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3137,7 +3305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3145,7 +3313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3153,7 +3321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3161,7 +3329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3169,7 +3337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3177,7 +3345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3185,7 +3353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3193,7 +3361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3201,7 +3369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3209,7 +3377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3217,7 +3385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3225,7 +3393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3233,7 +3401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3241,7 +3409,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3249,7 +3417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3257,7 +3425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3265,7 +3433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3273,7 +3441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3281,7 +3449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3289,7 +3457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3297,7 +3465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3305,7 +3473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3313,7 +3481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3321,1893 +3489,1894 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2" xr:uid="{61B1214D-DC08-3C42-AB14-D225B2732B8F}"/>
+  <autoFilter ref="A1:M2" xr:uid="{61B1214D-DC08-3C42-AB14-D225B2732B8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbruscato\Dropbox\Github-Lucas\master\2_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79AE11-EAAE-1341-8B2E-654CBE08FAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
   <si>
     <t>programa</t>
   </si>
@@ -417,6 +418,72 @@
   </si>
   <si>
     <t>10361-Rio Verde-GO.pdf</t>
+  </si>
+  <si>
+    <t>10362-Ceres-GO.pdf</t>
+  </si>
+  <si>
+    <t>10365-Caruaru-PE.pdf</t>
+  </si>
+  <si>
+    <t>10368-Itaituba-PA.pdf</t>
+  </si>
+  <si>
+    <t>10371-Aquidauana-MS.pdf</t>
+  </si>
+  <si>
+    <t>10374-Jataí-GO.pdf</t>
+  </si>
+  <si>
+    <t>10379-São Domingos-SC.pdf</t>
+  </si>
+  <si>
+    <t>10383-Caldas Novas-GO.pdf</t>
+  </si>
+  <si>
+    <t>10388-Sertãozinho-SP.pdf</t>
+  </si>
+  <si>
+    <t>10391-Catalão-GO.pdf</t>
+  </si>
+  <si>
+    <t>10395-Três Lagoas-MS.pdf</t>
+  </si>
+  <si>
+    <t>10400-Piracicaba-SP.pdf</t>
+  </si>
+  <si>
+    <t>10402-Itabaiana-SE.pdf</t>
+  </si>
+  <si>
+    <t>10403-Tobias Barreto-SE.pdf</t>
+  </si>
+  <si>
+    <t>10405-Bom Jesus-PI.pdf</t>
+  </si>
+  <si>
+    <t>10406-Caracol-PI.pdf</t>
+  </si>
+  <si>
+    <t>10407-Oeiras-PI.pdf</t>
+  </si>
+  <si>
+    <t>10408-Regeneração-PI.pdf</t>
+  </si>
+  <si>
+    <t>10410-Sobral-CE.pdf</t>
+  </si>
+  <si>
+    <t>10416-Crateús-CE.pdf</t>
+  </si>
+  <si>
+    <t>10424-Breves-PA.pdf</t>
+  </si>
+  <si>
+    <t>10430-Juazeiro do Norte-CE.pdf</t>
+  </si>
+  <si>
+    <t>10434-Pinheiro-MA.pdf</t>
   </si>
 </sst>
 </file>
@@ -602,7 +669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,23 +967,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BD5F18-02BD-3E4D-B945-4F3B5D58968F}">
   <dimension ref="A1:M539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="15" style="11" customWidth="1"/>
     <col min="13" max="13" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -943,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -961,7 +1028,7 @@
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -981,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -998,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1015,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1035,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1052,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1072,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1092,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1112,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1129,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1146,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1163,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1180,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1200,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1220,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1240,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1260,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1277,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1297,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1317,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1334,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1351,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1368,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1388,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1408,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1425,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1442,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1462,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1482,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1499,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1519,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1539,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1556,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1573,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1590,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1610,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1630,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1647,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1664,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1701,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1721,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1741,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1758,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1778,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1798,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1818,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1838,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1858,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1878,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1895,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1912,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1929,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1946,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1963,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1980,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2000,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2017,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2037,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2054,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2071,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2091,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2108,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2125,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2145,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2165,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2185,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2202,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2216,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2236,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2256,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2273,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2293,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2310,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2330,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2350,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2370,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2390,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2410,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2444,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2464,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2481,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2501,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2515,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2535,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2549,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2569,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2589,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2609,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2629,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2649,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2666,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2686,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2706,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2723,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2743,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2763,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2780,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2797,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2814,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2834,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2854,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2874,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2891,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2911,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2928,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2945,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2962,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2976,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2993,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3007,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3024,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3041,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3058,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3075,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3092,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3109,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3126,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3143,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3160,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3177,183 +3244,357 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="6">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3361,7 +3602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3369,7 +3610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3377,7 +3618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3385,7 +3626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3393,7 +3634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3401,7 +3642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3409,7 +3650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3417,7 +3658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3425,7 +3666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3433,7 +3674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3441,7 +3682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3449,7 +3690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3457,7 +3698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3465,7 +3706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3473,7 +3714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3481,7 +3722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3489,1887 +3730,1887 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>

--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79AE11-EAAE-1341-8B2E-654CBE08FAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0EE3A-B9C6-9C4D-A64C-A46BF158ABE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
   <si>
     <t>programa</t>
   </si>
@@ -484,6 +484,57 @@
   </si>
   <si>
     <t>10434-Pinheiro-MA.pdf</t>
+  </si>
+  <si>
+    <t>10435-Sorocaba-SP.pdf</t>
+  </si>
+  <si>
+    <t>10436-Cosmópolis-SP.pdf</t>
+  </si>
+  <si>
+    <t>10437-Tabatinga-AM.pdf</t>
+  </si>
+  <si>
+    <t>10438-Icó-CE.pdf</t>
+  </si>
+  <si>
+    <t>10440-Mazagão-AP.pdf</t>
+  </si>
+  <si>
+    <t>10442-Viçosa-MG.pdf</t>
+  </si>
+  <si>
+    <t>10444-Itaperuna-RJ.pdf</t>
+  </si>
+  <si>
+    <t>10453-Imperatriz-MA.pdf</t>
+  </si>
+  <si>
+    <t>10541-Serra Talhada-PE.pdf</t>
+  </si>
+  <si>
+    <t>10588-Garanhuns-PE.pdf</t>
+  </si>
+  <si>
+    <t>10638-Alagoinhas-BA.pdf</t>
+  </si>
+  <si>
+    <t>10639-Paulo Afonso-BA.pdf</t>
+  </si>
+  <si>
+    <t>10640-Serrinha-BA.pdf</t>
+  </si>
+  <si>
+    <t>10641-Jequié-BA.pdf</t>
+  </si>
+  <si>
+    <t>10642-Barreiras-BA.pdf</t>
+  </si>
+  <si>
+    <t>10643-Feira de Santana-BA.pdf</t>
+  </si>
+  <si>
+    <t>10644-Casa Nova-BA.pdf</t>
   </si>
 </sst>
 </file>
@@ -968,8 +1019,8 @@
   <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3601,6 +3652,15 @@
       <c r="B146" t="s">
         <v>85</v>
       </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
@@ -3609,6 +3669,15 @@
       <c r="B147" t="s">
         <v>85</v>
       </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
@@ -3617,6 +3686,15 @@
       <c r="B148" t="s">
         <v>85</v>
       </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
@@ -3625,6 +3703,15 @@
       <c r="B149" t="s">
         <v>85</v>
       </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="6">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
@@ -3633,6 +3720,15 @@
       <c r="B150" t="s">
         <v>85</v>
       </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
@@ -3641,6 +3737,12 @@
       <c r="B151" t="s">
         <v>85</v>
       </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
@@ -3649,6 +3751,15 @@
       <c r="B152" t="s">
         <v>85</v>
       </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
@@ -3657,6 +3768,15 @@
       <c r="B153" t="s">
         <v>85</v>
       </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
@@ -3665,6 +3785,15 @@
       <c r="B154" t="s">
         <v>85</v>
       </c>
+      <c r="C154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
@@ -3673,6 +3802,15 @@
       <c r="B155" t="s">
         <v>85</v>
       </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
@@ -3681,6 +3819,15 @@
       <c r="B156" t="s">
         <v>85</v>
       </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156" s="6">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
@@ -3689,6 +3836,15 @@
       <c r="B157" t="s">
         <v>85</v>
       </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
@@ -3697,6 +3853,15 @@
       <c r="B158" t="s">
         <v>85</v>
       </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
@@ -3705,6 +3870,15 @@
       <c r="B159" t="s">
         <v>85</v>
       </c>
+      <c r="C159" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="6">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
@@ -3713,89 +3887,113 @@
       <c r="B160" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>

--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0EE3A-B9C6-9C4D-A64C-A46BF158ABE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96069EA7-5A5A-9744-8FD9-4D7477B765BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$539</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
   <si>
     <t>programa</t>
   </si>
@@ -535,6 +535,216 @@
   </si>
   <si>
     <t>10644-Casa Nova-BA.pdf</t>
+  </si>
+  <si>
+    <t>sorteio_34</t>
+  </si>
+  <si>
+    <t>1825-Manoel Urbano-AC.pdf</t>
+  </si>
+  <si>
+    <t>1826-Feliz Deserto-AL.pdf</t>
+  </si>
+  <si>
+    <t>1827-Urucurituba-AM.pdf</t>
+  </si>
+  <si>
+    <t>1828-América Dourada-BA.pdf</t>
+  </si>
+  <si>
+    <t>1829-Aurelino Leal-BA.pdf</t>
+  </si>
+  <si>
+    <t>1830-Canápolis-BA.pdf</t>
+  </si>
+  <si>
+    <t>1831-Lamarão-BA.pdf</t>
+  </si>
+  <si>
+    <t>1832-Ubaíra-BA.pdf</t>
+  </si>
+  <si>
+    <t>1833-Boa Viagem-CE.pdf</t>
+  </si>
+  <si>
+    <t>1834-Iracema-CE.pdf</t>
+  </si>
+  <si>
+    <t>1835-Itapagé-CE.pdf</t>
+  </si>
+  <si>
+    <t>1836-Jaguaribe-CE.pdf</t>
+  </si>
+  <si>
+    <t>1837-São Mateus-ES.pdf</t>
+  </si>
+  <si>
+    <t>1838-Edealina-GO.pdf</t>
+  </si>
+  <si>
+    <t>1839-Nova Glória-GO.pdf</t>
+  </si>
+  <si>
+    <t>1840-Santo Antônio da Barra-GO.pdf</t>
+  </si>
+  <si>
+    <t>1841-Bela Vista do Maranhão-MA.pdf</t>
+  </si>
+  <si>
+    <t>1842-São Raimundo do Doca Bezerra-MA.pdf</t>
+  </si>
+  <si>
+    <t>1843-Borda da Mata-MG.pdf</t>
+  </si>
+  <si>
+    <t>1844-Campo Belo-MG.pdf</t>
+  </si>
+  <si>
+    <t>1845-Caputira-MG.pdf</t>
+  </si>
+  <si>
+    <t>1846-Durandé-MG.pdf</t>
+  </si>
+  <si>
+    <t>1847-Minduri-MG.pdf</t>
+  </si>
+  <si>
+    <t>1848-Nova Ponte-MG.pdf</t>
+  </si>
+  <si>
+    <t>1849-Santana de Cataguases-MG.pdf</t>
+  </si>
+  <si>
+    <t>1850-Selvíria-MS.pdf</t>
+  </si>
+  <si>
+    <t>1851-Reserva do Cabaçal-MT.pdf</t>
+  </si>
+  <si>
+    <t>1852-Santo Antônio do Leste-MT.pdf</t>
+  </si>
+  <si>
+    <t>1853-Bagre-PA.pdf</t>
+  </si>
+  <si>
+    <t>1855-Primavera-PA.pdf</t>
+  </si>
+  <si>
+    <t>1856-Curral de Cima-PB.pdf</t>
+  </si>
+  <si>
+    <t>1857-Manaíra-PB.pdf</t>
+  </si>
+  <si>
+    <t>1858-Caruaru-PE.pdf</t>
+  </si>
+  <si>
+    <t>1859-Quipapá-PE.pdf</t>
+  </si>
+  <si>
+    <t>1860-Santa Cruz do Capibaribe-PE.pdf</t>
+  </si>
+  <si>
+    <t>1861-Betânia do Piauí-PI.pdf</t>
+  </si>
+  <si>
+    <t>1862-Floriano-PI.pdf</t>
+  </si>
+  <si>
+    <t>1863-Araucária-PR.pdf</t>
+  </si>
+  <si>
+    <t>1864-Paranaguá-PR.pdf</t>
+  </si>
+  <si>
+    <t>1865-Roncador-PR.pdf</t>
+  </si>
+  <si>
+    <t>1866-Maricá-RJ.pdf</t>
+  </si>
+  <si>
+    <t>1867-Fernando Pedroza-RN.pdf</t>
+  </si>
+  <si>
+    <t>1868-João Câmara-RN.pdf</t>
+  </si>
+  <si>
+    <t>1869-Upanema-RN.pdf</t>
+  </si>
+  <si>
+    <t>1870-Arroio dos Ratos-RS.pdf</t>
+  </si>
+  <si>
+    <t>1871-Bento Gonçalves-RS.pdf</t>
+  </si>
+  <si>
+    <t>1872-Muçum-RS.pdf</t>
+  </si>
+  <si>
+    <t>1873-Segredo-RS.pdf</t>
+  </si>
+  <si>
+    <t>1874-Bandeirante-SC.pdf</t>
+  </si>
+  <si>
+    <t>1875-Benedito Novo-SC.pdf</t>
+  </si>
+  <si>
+    <t>1876-Japaratuba-SE.pdf</t>
+  </si>
+  <si>
+    <t>1877-Lagarto-SE.pdf</t>
+  </si>
+  <si>
+    <t>1878-Arujá-SP.pdf</t>
+  </si>
+  <si>
+    <t>1879-Cesário Lange-SP.pdf</t>
+  </si>
+  <si>
+    <t>1881-Pratânia-SP.pdf</t>
+  </si>
+  <si>
+    <t>1882-Santa Albertina-SP.pdf</t>
+  </si>
+  <si>
+    <t>1883-Taubaté-SP.pdf</t>
+  </si>
+  <si>
+    <t>1884-Novo Acordo-TO.pdf</t>
+  </si>
+  <si>
+    <t>sorteio_35</t>
+  </si>
+  <si>
+    <t>1885-Santana do Mundaú-AL.pdf</t>
+  </si>
+  <si>
+    <t>1886-Barreiras-BA.pdf</t>
+  </si>
+  <si>
+    <t>1887-Morro do Chapéu-BA.pdf</t>
+  </si>
+  <si>
+    <t>1888-Nova Ibiá-BA.pdf</t>
+  </si>
+  <si>
+    <t>1889-Rio do Antônio-BA.pdf</t>
+  </si>
+  <si>
+    <t>1890-Tremedal-BA.pdf</t>
+  </si>
+  <si>
+    <t>1891-Arneiroz-CE.pdf</t>
+  </si>
+  <si>
+    <t>1892-Farias Brito-CE.pdf</t>
+  </si>
+  <si>
+    <t>1893-Horizonte-CE.pdf</t>
+  </si>
+  <si>
+    <t>1894-Poranga-CE.pdf</t>
   </si>
 </sst>
 </file>
@@ -1019,15 +1229,15 @@
   <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="15" style="11" customWidth="1"/>
@@ -3932,548 +4142,1442 @@
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" s="6">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169" s="6">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>177</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="B172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="B173" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" s="6">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
+      <c r="B175" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="6">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180" s="6">
+        <v>1</v>
+      </c>
+      <c r="E180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>169</v>
+      </c>
+      <c r="C181" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" s="6">
+        <v>0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>169</v>
+      </c>
+      <c r="C183" t="s">
+        <v>190</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0</v>
+      </c>
+      <c r="E184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" t="s">
+        <v>192</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" s="6">
+        <v>0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="6">
+        <v>0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" t="s">
+        <v>195</v>
+      </c>
+      <c r="D188" s="6">
+        <v>1</v>
+      </c>
+      <c r="E188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>169</v>
+      </c>
+      <c r="C189" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>169</v>
+      </c>
+      <c r="C190" t="s">
+        <v>197</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>169</v>
+      </c>
+      <c r="C191" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>169</v>
+      </c>
+      <c r="C192" t="s">
+        <v>199</v>
+      </c>
+      <c r="D192" s="6">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>169</v>
+      </c>
+      <c r="C193" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>169</v>
+      </c>
+      <c r="C194" t="s">
+        <v>201</v>
+      </c>
+      <c r="D194" s="6">
+        <v>1</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>169</v>
+      </c>
+      <c r="C195" t="s">
+        <v>202</v>
+      </c>
+      <c r="D195" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>169</v>
+      </c>
+      <c r="C196" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="6">
+        <v>0</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" t="s">
+        <v>204</v>
+      </c>
+      <c r="D197" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" t="s">
+        <v>205</v>
+      </c>
+      <c r="D198" s="6">
+        <v>1</v>
+      </c>
+      <c r="E198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>169</v>
+      </c>
+      <c r="C199" t="s">
+        <v>206</v>
+      </c>
+      <c r="D199" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>169</v>
+      </c>
+      <c r="C200" t="s">
+        <v>207</v>
+      </c>
+      <c r="D200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" t="s">
+        <v>209</v>
+      </c>
+      <c r="D202" s="6">
+        <v>0</v>
+      </c>
+      <c r="E202" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" t="s">
+        <v>210</v>
+      </c>
+      <c r="D203" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" t="s">
+        <v>211</v>
+      </c>
+      <c r="D204" s="6">
+        <v>1</v>
+      </c>
+      <c r="E204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>169</v>
+      </c>
+      <c r="C205" t="s">
+        <v>212</v>
+      </c>
+      <c r="D205" s="6">
+        <v>0</v>
+      </c>
+      <c r="E205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" t="s">
+        <v>213</v>
+      </c>
+      <c r="D206" s="6">
+        <v>0</v>
+      </c>
+      <c r="E206" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" t="s">
+        <v>214</v>
+      </c>
+      <c r="D207" s="6">
+        <v>0</v>
+      </c>
+      <c r="E207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" t="s">
+        <v>215</v>
+      </c>
+      <c r="D208" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>169</v>
+      </c>
+      <c r="C209" t="s">
+        <v>216</v>
+      </c>
+      <c r="D209" s="6">
+        <v>0</v>
+      </c>
+      <c r="E209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>169</v>
+      </c>
+      <c r="C210" t="s">
+        <v>217</v>
+      </c>
+      <c r="D210" s="6">
+        <v>0</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>169</v>
+      </c>
+      <c r="C211" t="s">
+        <v>218</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>169</v>
+      </c>
+      <c r="C212" t="s">
+        <v>219</v>
+      </c>
+      <c r="D212" s="6">
+        <v>0</v>
+      </c>
+      <c r="E212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>169</v>
+      </c>
+      <c r="C213" t="s">
+        <v>220</v>
+      </c>
+      <c r="D213" s="6">
+        <v>0</v>
+      </c>
+      <c r="E213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>169</v>
+      </c>
+      <c r="C214" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>169</v>
+      </c>
+      <c r="C215" t="s">
+        <v>222</v>
+      </c>
+      <c r="D215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>169</v>
+      </c>
+      <c r="C216" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="6">
+        <v>0</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>169</v>
+      </c>
+      <c r="C217" t="s">
+        <v>224</v>
+      </c>
+      <c r="D217" s="6">
+        <v>0</v>
+      </c>
+      <c r="E217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>169</v>
+      </c>
+      <c r="C218" t="s">
+        <v>225</v>
+      </c>
+      <c r="D218" s="6">
+        <v>0</v>
+      </c>
+      <c r="E218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>169</v>
+      </c>
+      <c r="C219" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>169</v>
+      </c>
+      <c r="C220" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220" s="6">
+        <v>0</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" t="s">
+        <v>229</v>
+      </c>
+      <c r="D221" s="6">
+        <v>1</v>
+      </c>
+      <c r="E221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
+        <v>231</v>
+      </c>
+      <c r="D223" s="6">
+        <v>1</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224" s="6">
+        <v>0</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>233</v>
+      </c>
+      <c r="D225" s="6">
+        <v>1</v>
+      </c>
+      <c r="E225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="s">
+        <v>234</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" t="s">
+        <v>235</v>
+      </c>
+      <c r="D227" s="6">
+        <v>1</v>
+      </c>
+      <c r="E227" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0</v>
+      </c>
+      <c r="E228" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>228</v>
+      </c>
+      <c r="C229" t="s">
+        <v>237</v>
+      </c>
+      <c r="D229" s="6">
+        <v>0</v>
+      </c>
+      <c r="E229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="6">
+        <v>0</v>
+      </c>
+      <c r="E230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5814,7 +6918,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2" xr:uid="{61B1214D-DC08-3C42-AB14-D225B2732B8F}"/>
+  <autoFilter ref="A1:M539" xr:uid="{61B1214D-DC08-3C42-AB14-D225B2732B8F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Google Drive/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96069EA7-5A5A-9744-8FD9-4D7477B765BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED7B197-C1EB-0945-A0B8-4DEFD57DF72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="261">
   <si>
     <t>programa</t>
   </si>
@@ -745,6 +745,72 @@
   </si>
   <si>
     <t>1894-Poranga-CE.pdf</t>
+  </si>
+  <si>
+    <t>1895-Ponto Belo-ES.pdf</t>
+  </si>
+  <si>
+    <t>1896-Diorama-GO.pdf</t>
+  </si>
+  <si>
+    <t>1897-Palminópolis-GO.pdf</t>
+  </si>
+  <si>
+    <t>1898-Piracanjuba-GO.pdf</t>
+  </si>
+  <si>
+    <t>1899-Fortuna-MA.pdf</t>
+  </si>
+  <si>
+    <t>1900-Itaipava do Grajaú-MA.pdf</t>
+  </si>
+  <si>
+    <t>1901-Carrancas-MG.pdf</t>
+  </si>
+  <si>
+    <t>1902-Cláudio-MG.pdf</t>
+  </si>
+  <si>
+    <t>1904-Itinga-MG.pdf</t>
+  </si>
+  <si>
+    <t>1905-Mesquita-MG.pdf</t>
+  </si>
+  <si>
+    <t>1906-Patrocínio-MG.pdf</t>
+  </si>
+  <si>
+    <t>1907-São João do Manteninha-MG.pdf</t>
+  </si>
+  <si>
+    <t>1908-Antônio João-MS.pdf</t>
+  </si>
+  <si>
+    <t>1909-Colíder-MT.pdf</t>
+  </si>
+  <si>
+    <t>1910-Santa Rita do Trivelato-MT.pdf</t>
+  </si>
+  <si>
+    <t>1911-Bujaru-PA.pdf</t>
+  </si>
+  <si>
+    <t>1912-Santa Maria do Pará-PA.pdf</t>
+  </si>
+  <si>
+    <t>1913-São Félix do Xingu-PA.pdf</t>
+  </si>
+  <si>
+    <t>1914-Queimadas-PB.pdf</t>
+  </si>
+  <si>
+    <t>1915-Umbuzeiro-PB.pdf</t>
+  </si>
+  <si>
+    <t>1916-Agrestina-PE.pdf</t>
+  </si>
+  <si>
+    <t>1917-Orocó-PE.pdf</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1295,8 @@
   <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5259,6 +5325,15 @@
       <c r="B231" t="s">
         <v>228</v>
       </c>
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231" s="6">
+        <v>0</v>
+      </c>
+      <c r="E231" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
@@ -5267,6 +5342,15 @@
       <c r="B232" t="s">
         <v>228</v>
       </c>
+      <c r="C232" t="s">
+        <v>240</v>
+      </c>
+      <c r="D232" s="6">
+        <v>0</v>
+      </c>
+      <c r="E232" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
@@ -5275,6 +5359,15 @@
       <c r="B233" t="s">
         <v>228</v>
       </c>
+      <c r="C233" t="s">
+        <v>241</v>
+      </c>
+      <c r="D233" s="6">
+        <v>0</v>
+      </c>
+      <c r="E233" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
@@ -5283,6 +5376,15 @@
       <c r="B234" t="s">
         <v>228</v>
       </c>
+      <c r="C234" t="s">
+        <v>242</v>
+      </c>
+      <c r="D234" s="6">
+        <v>0</v>
+      </c>
+      <c r="E234" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
@@ -5291,6 +5393,15 @@
       <c r="B235" t="s">
         <v>228</v>
       </c>
+      <c r="C235" t="s">
+        <v>243</v>
+      </c>
+      <c r="D235" s="6">
+        <v>1</v>
+      </c>
+      <c r="E235" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
@@ -5299,6 +5410,15 @@
       <c r="B236" t="s">
         <v>228</v>
       </c>
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
+      <c r="D236" s="6">
+        <v>1</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
@@ -5307,6 +5427,15 @@
       <c r="B237" t="s">
         <v>228</v>
       </c>
+      <c r="C237" t="s">
+        <v>245</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0</v>
+      </c>
+      <c r="E237" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
@@ -5315,6 +5444,15 @@
       <c r="B238" t="s">
         <v>228</v>
       </c>
+      <c r="C238" t="s">
+        <v>246</v>
+      </c>
+      <c r="D238" s="6">
+        <v>0</v>
+      </c>
+      <c r="E238" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
@@ -5323,6 +5461,15 @@
       <c r="B239" t="s">
         <v>228</v>
       </c>
+      <c r="C239" t="s">
+        <v>247</v>
+      </c>
+      <c r="D239" s="6">
+        <v>0</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
@@ -5331,104 +5478,215 @@
       <c r="B240" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>248</v>
+      </c>
+      <c r="D240" s="6">
+        <v>0</v>
+      </c>
+      <c r="E240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
+        <v>249</v>
+      </c>
+      <c r="E241" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>250</v>
+      </c>
+      <c r="D242" s="6">
+        <v>0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
+        <v>251</v>
+      </c>
+      <c r="D243" s="6">
+        <v>0</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" t="s">
+        <v>252</v>
+      </c>
+      <c r="D244" s="6">
+        <v>0</v>
+      </c>
+      <c r="E244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>253</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0</v>
+      </c>
+      <c r="E245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>254</v>
+      </c>
+      <c r="D246" s="6">
+        <v>1</v>
+      </c>
+      <c r="E246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>255</v>
+      </c>
+      <c r="D247" s="6">
+        <v>0</v>
+      </c>
+      <c r="E247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>256</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>257</v>
+      </c>
+      <c r="D249" s="6">
+        <v>0</v>
+      </c>
+      <c r="E249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>258</v>
+      </c>
+      <c r="D250" s="6">
+        <v>0</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251" t="s">
+        <v>259</v>
+      </c>
+      <c r="D251" s="6">
+        <v>1</v>
+      </c>
+      <c r="E251" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252" t="s">
+        <v>260</v>
+      </c>
+      <c r="D252" s="6">
+        <v>0</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5436,7 +5694,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5444,7 +5702,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5452,7 +5710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>

--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Google Drive/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED7B197-C1EB-0945-A0B8-4DEFD57DF72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1353D9-50B3-9243-A72A-E28D420F0C3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="271">
   <si>
     <t>programa</t>
   </si>
@@ -811,6 +811,36 @@
   </si>
   <si>
     <t>1917-Orocó-PE.pdf</t>
+  </si>
+  <si>
+    <t>1918-Taquaritinga do Norte-PE.pdf</t>
+  </si>
+  <si>
+    <t>1919-Bela Vista do Piauí-PI.pdf</t>
+  </si>
+  <si>
+    <t>1920-Santo Antônio dos Milagres-PI.pdf</t>
+  </si>
+  <si>
+    <t>1921-Bituruna-PR.pdf</t>
+  </si>
+  <si>
+    <t>1922-Indianópolis-PR.pdf</t>
+  </si>
+  <si>
+    <t>1923-Itaguajé-PR.pdf</t>
+  </si>
+  <si>
+    <t>1924-Porciúncula-RJ.pdf</t>
+  </si>
+  <si>
+    <t>1925-Itaú-RN.pdf</t>
+  </si>
+  <si>
+    <t>1926-Parazinho-RN.pdf</t>
+  </si>
+  <si>
+    <t>1927-São Miguel-RN.pdf</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1325,8 @@
   <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5693,6 +5723,15 @@
       <c r="B253" t="s">
         <v>228</v>
       </c>
+      <c r="C253" t="s">
+        <v>261</v>
+      </c>
+      <c r="D253" s="6">
+        <v>1</v>
+      </c>
+      <c r="E253" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
@@ -5701,6 +5740,15 @@
       <c r="B254" t="s">
         <v>228</v>
       </c>
+      <c r="C254" t="s">
+        <v>262</v>
+      </c>
+      <c r="D254" s="6">
+        <v>0</v>
+      </c>
+      <c r="E254" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
@@ -5709,6 +5757,15 @@
       <c r="B255" t="s">
         <v>228</v>
       </c>
+      <c r="C255" t="s">
+        <v>263</v>
+      </c>
+      <c r="D255" s="6">
+        <v>0</v>
+      </c>
+      <c r="E255" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
@@ -5717,56 +5774,119 @@
       <c r="B256" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>264</v>
+      </c>
+      <c r="D256" s="6">
+        <v>0</v>
+      </c>
+      <c r="E256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>265</v>
+      </c>
+      <c r="D257" s="6">
+        <v>0</v>
+      </c>
+      <c r="E257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
+        <v>266</v>
+      </c>
+      <c r="D258" s="6">
+        <v>0</v>
+      </c>
+      <c r="E258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259" t="s">
+        <v>267</v>
+      </c>
+      <c r="D259" s="6">
+        <v>0</v>
+      </c>
+      <c r="E259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260" t="s">
+        <v>268</v>
+      </c>
+      <c r="D260" s="6">
+        <v>1</v>
+      </c>
+      <c r="E260" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261" t="s">
+        <v>269</v>
+      </c>
+      <c r="D261" s="6">
+        <v>0</v>
+      </c>
+      <c r="E261" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
+        <v>270</v>
+      </c>
+      <c r="D262" s="6">
+        <v>1</v>
+      </c>
+      <c r="E262" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5774,7 +5894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5782,7 +5902,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5790,7 +5910,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5798,7 +5918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5806,7 +5926,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5814,7 +5934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5822,7 +5942,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5830,12 +5950,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>

--- a/2_database/1_targetFeature.xlsx
+++ b/2_database/1_targetFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Google Drive/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1353D9-50B3-9243-A72A-E28D420F0C3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF4EBA6-C7FF-1744-8424-D2F43AC7C40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="288">
   <si>
     <t>programa</t>
   </si>
@@ -841,6 +841,57 @@
   </si>
   <si>
     <t>1927-São Miguel-RN.pdf</t>
+  </si>
+  <si>
+    <t>1928-Presidente Médici-RO.pdf</t>
+  </si>
+  <si>
+    <t>1929-Uiramutã-RR.pdf</t>
+  </si>
+  <si>
+    <t>1930-Glorinha-RS.pdf</t>
+  </si>
+  <si>
+    <t>1931-Itaara-RS.pdf</t>
+  </si>
+  <si>
+    <t>1932-Relvado-RS.pdf</t>
+  </si>
+  <si>
+    <t>1933-Santa Clara do Sul-RS.pdf</t>
+  </si>
+  <si>
+    <t>1934-Jupiá-SC.pdf</t>
+  </si>
+  <si>
+    <t>1935-Sangão-SC.pdf</t>
+  </si>
+  <si>
+    <t>1936-Divina Pastora-SE.pdf</t>
+  </si>
+  <si>
+    <t>1937-Nossa Senhora Aparecida-SE.pdf</t>
+  </si>
+  <si>
+    <t>1938-Adamantina-SP.pdf</t>
+  </si>
+  <si>
+    <t>1939-Auriflama-SP.pdf</t>
+  </si>
+  <si>
+    <t>1940-Palmares Paulista-SP.pdf</t>
+  </si>
+  <si>
+    <t>1941-Pontes Gestal-SP.pdf</t>
+  </si>
+  <si>
+    <t>1942-Riversul-SP.pdf</t>
+  </si>
+  <si>
+    <t>1943-São Sebastião da Grama-SP.pdf</t>
+  </si>
+  <si>
+    <t>1944-Bandeirantes do Tocantins-TO.pdf</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1376,8 @@
   <dimension ref="A1:M539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D263" sqref="D263"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5893,6 +5944,15 @@
       <c r="B263" t="s">
         <v>228</v>
       </c>
+      <c r="C263" t="s">
+        <v>271</v>
+      </c>
+      <c r="D263" s="6">
+        <v>0</v>
+      </c>
+      <c r="E263" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
@@ -5901,6 +5961,15 @@
       <c r="B264" t="s">
         <v>228</v>
       </c>
+      <c r="C264" t="s">
+        <v>272</v>
+      </c>
+      <c r="D264" s="6">
+        <v>1</v>
+      </c>
+      <c r="E264" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
@@ -5909,6 +5978,15 @@
       <c r="B265" t="s">
         <v>228</v>
       </c>
+      <c r="C265" t="s">
+        <v>273</v>
+      </c>
+      <c r="D265" s="6">
+        <v>0</v>
+      </c>
+      <c r="E265" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
@@ -5917,6 +5995,15 @@
       <c r="B266" t="s">
         <v>228</v>
       </c>
+      <c r="C266" t="s">
+        <v>274</v>
+      </c>
+      <c r="D266" s="6">
+        <v>0</v>
+      </c>
+      <c r="E266" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
@@ -5925,6 +6012,15 @@
       <c r="B267" t="s">
         <v>228</v>
       </c>
+      <c r="C267" t="s">
+        <v>275</v>
+      </c>
+      <c r="D267" s="6">
+        <v>0</v>
+      </c>
+      <c r="E267" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
@@ -5933,6 +6029,15 @@
       <c r="B268" t="s">
         <v>228</v>
       </c>
+      <c r="C268" t="s">
+        <v>276</v>
+      </c>
+      <c r="D268" s="6">
+        <v>0</v>
+      </c>
+      <c r="E268" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
@@ -5941,6 +6046,15 @@
       <c r="B269" t="s">
         <v>228</v>
       </c>
+      <c r="C269" t="s">
+        <v>277</v>
+      </c>
+      <c r="D269" s="6">
+        <v>0</v>
+      </c>
+      <c r="E269" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
@@ -5949,93 +6063,210 @@
       <c r="B270" t="s">
         <v>228</v>
       </c>
+      <c r="C270" t="s">
+        <v>278</v>
+      </c>
+      <c r="D270" s="6">
+        <v>0</v>
+      </c>
+      <c r="E270" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
+      <c r="B271" t="s">
+        <v>228</v>
+      </c>
+      <c r="C271" t="s">
+        <v>279</v>
+      </c>
+      <c r="D271" s="6">
+        <v>0</v>
+      </c>
+      <c r="E271" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>228</v>
+      </c>
+      <c r="C272" t="s">
+        <v>280</v>
+      </c>
+      <c r="D272" s="6">
+        <v>1</v>
+      </c>
+      <c r="E272" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>228</v>
+      </c>
+      <c r="C273" t="s">
+        <v>281</v>
+      </c>
+      <c r="D273" s="6">
+        <v>0</v>
+      </c>
+      <c r="E273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>228</v>
+      </c>
+      <c r="C274" t="s">
+        <v>282</v>
+      </c>
+      <c r="D274" s="6">
+        <v>0</v>
+      </c>
+      <c r="E274" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>228</v>
+      </c>
+      <c r="C275" t="s">
+        <v>283</v>
+      </c>
+      <c r="D275" s="6">
+        <v>0</v>
+      </c>
+      <c r="E275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" t="s">
+        <v>284</v>
+      </c>
+      <c r="D276" s="6">
+        <v>0</v>
+      </c>
+      <c r="E276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" t="s">
+        <v>285</v>
+      </c>
+      <c r="D277" s="6">
+        <v>0</v>
+      </c>
+      <c r="E277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>228</v>
+      </c>
+      <c r="C278" t="s">
+        <v>286</v>
+      </c>
+      <c r="D278" s="6">
+        <v>1</v>
+      </c>
+      <c r="E278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" t="s">
+        <v>287</v>
+      </c>
+      <c r="D279" s="6">
+        <v>1</v>
+      </c>
+      <c r="E279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
